--- a/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
+++ b/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519003</t>
+          <t>506000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通收益增长混合</t>
+          <t>南方科创板 3 年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>78.55</t>
+          <t>30.46</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>610004</t>
+          <t>519133</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银中小盘混合</t>
+          <t>海富通改革驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>55.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>506000</t>
+          <t>004666</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方科创板 3 年定期开放混合</t>
+          <t>长城久嘉创新成长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.54</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>610006</t>
+          <t>519003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银产业升级混合</t>
+          <t>海富通收益增长混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>17.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004666</t>
+          <t>501096</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>610006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>信达澳银产业升级混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>610004</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>信达澳银中小盘混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501096</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50.14</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519133</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>海富通改革驱动灵活配置混合</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.82</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +910,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.58</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.45</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.15</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8296</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>27.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>80.26</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.14</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>92.64</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>7.11</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -938,17 +1098,21 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>92.64</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>7.11</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
+++ b/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1098,7 +1099,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -1114,6 +1114,2266 @@
       </c>
       <c r="H7" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9239</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8662</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6944</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3262</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2315</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1777</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1181</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009774</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管优选回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7940</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7469</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6086</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006266</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6030</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5781</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008919</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5738</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4167</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>51.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006269</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢智能领先混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>58.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011004</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢鑫盛混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008920</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>永赢科技驱动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
+++ b/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3379,4 +3380,2682 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2385</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0239</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9920</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9538</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8971</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8277</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6748</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6410</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5552</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5541</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3936</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2963</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2611</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>398011</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中海分红增利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005251</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华多元动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012696</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012697</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>同泰数字经济主题股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>38.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
+++ b/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6058,4 +6059,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
+++ b/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6067,7 +6068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6078,17 +6079,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6098,14 +6119,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.64</v>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6114,14 +6157,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.63</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6130,14 +6195,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.22</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7617</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6146,13 +6233,1861 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6733</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2927</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>70.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
+++ b/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7986,7 +7987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7997,17 +7998,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8017,14 +8038,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.58</v>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8033,14 +8076,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>69</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.64</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5694</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8049,14 +8114,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.63</v>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4418</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8065,14 +8152,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.22</v>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -8081,13 +8190,1573 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4253</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3883</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3557</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1520</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>38.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.61</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>69</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
+++ b/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9639,7 +9640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9650,17 +9651,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9670,14 +9691,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.96</v>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7009</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -9686,14 +9729,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.58</v>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0715</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -9702,14 +9767,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>69</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.64</v>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4281</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -9718,14 +9805,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.63</v>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -9734,14 +9843,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.22</v>
       </c>
     </row>
     <row r="7">
@@ -9750,13 +9881,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004359</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004360</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信量化核心混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.56</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
+++ b/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>6.2</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>19.96</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>13.58</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>22.64</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>20.63</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D7" t="n">
-        <v>3.22</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.56</v>
       </c>
     </row>
@@ -600,6 +617,782 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1742</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0319</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3890</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>35.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2839,7 +3632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4757,7 +5550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7435,7 +8228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9695,7 +10488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9972,7 +10765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
+++ b/数据整理/stocks/A股/科创板/688200-华峰测控.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="D2" t="n">
-        <v>5.02</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>6.2</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>19.96</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>13.58</v>
+        <v>19.96</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>22.64</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>20.63</v>
+        <v>22.64</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D8" t="n">
-        <v>3.22</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.56</v>
       </c>
     </row>
@@ -616,7 +633,2587 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0560</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城优化升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4785</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3572</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2607</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2345</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0795</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>588200</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>588290</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安上证科创板芯片ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012143</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012144</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新沃内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>016594</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>017458</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1392,7 +3989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1980,7 +4577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3632,7 +6229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5550,7 +8147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8228,7 +10825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10488,7 +13085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10763,402 +13360,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5839</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519133</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海富通改革驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2568</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004666</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0083</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>海富通收益增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3722</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501096</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>50.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1677</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>610006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>信达澳银产业升级混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>610004</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信达澳银中小盘混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0635</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004475</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003175</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>